--- a/结果对比.xlsx
+++ b/结果对比.xlsx
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1653,7 +1653,7 @@
         <v>2101</v>
       </c>
       <c r="C102" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(C3:C101)</f>
         <v>34.22914377261759</v>
       </c>
     </row>
